--- a/크롤링참조.xlsx
+++ b/크롤링참조.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\safaiboots\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vscode\kimsProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8263A232-BC57-4E63-BF59-7B10684FF54F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64E61E5-B9AB-4272-B7B1-5DAC129255E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2760" yWindow="2676" windowWidth="13284" windowHeight="8052" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -446,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G125"/>
+  <dimension ref="B2:G366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+      <selection activeCell="A61" sqref="A61:XFD79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1220,7 +1220,7 @@
         <v>5701</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B61">
         <v>57</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>5801</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B62">
         <v>58</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>5901</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B63">
         <v>59</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>6001</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B64">
         <v>60</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>6101</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B65">
         <v>61</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>6201</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B66">
         <v>62</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>6301</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B67">
         <v>63</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>6401</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B68">
         <v>64</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>6501</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B69">
         <v>65</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>6601</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B70">
         <v>66</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>6701</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B71">
         <v>67</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>6801</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B72">
         <v>68</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>6901</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B73">
         <v>69</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>7001</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B74">
         <v>70</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>7101</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B75">
         <v>71</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>7201</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B76">
         <v>72</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>7301</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B77">
         <v>73</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>7401</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B78">
         <v>74</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>7501</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B79">
         <v>75</v>
       </c>
@@ -2063,6 +2063,3139 @@
       <c r="D125">
         <f t="shared" si="5"/>
         <v>12201</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B126">
+        <v>122</v>
+      </c>
+      <c r="C126">
+        <f t="shared" ref="C126:D126" si="6">C125+100</f>
+        <v>12201</v>
+      </c>
+      <c r="D126">
+        <f t="shared" si="6"/>
+        <v>12301</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B127">
+        <v>123</v>
+      </c>
+      <c r="C127">
+        <f t="shared" ref="C127:D127" si="7">C126+100</f>
+        <v>12301</v>
+      </c>
+      <c r="D127">
+        <f t="shared" si="7"/>
+        <v>12401</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B128">
+        <v>124</v>
+      </c>
+      <c r="C128">
+        <f t="shared" ref="C128:D128" si="8">C127+100</f>
+        <v>12401</v>
+      </c>
+      <c r="D128">
+        <f t="shared" si="8"/>
+        <v>12501</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B129">
+        <v>125</v>
+      </c>
+      <c r="C129">
+        <f t="shared" ref="C129:D129" si="9">C128+100</f>
+        <v>12501</v>
+      </c>
+      <c r="D129">
+        <f t="shared" si="9"/>
+        <v>12601</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B130">
+        <v>126</v>
+      </c>
+      <c r="C130">
+        <f t="shared" ref="C130:D130" si="10">C129+100</f>
+        <v>12601</v>
+      </c>
+      <c r="D130">
+        <f t="shared" si="10"/>
+        <v>12701</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B131">
+        <v>127</v>
+      </c>
+      <c r="C131">
+        <f t="shared" ref="C131:D131" si="11">C130+100</f>
+        <v>12701</v>
+      </c>
+      <c r="D131">
+        <f t="shared" si="11"/>
+        <v>12801</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B132">
+        <v>128</v>
+      </c>
+      <c r="C132">
+        <f t="shared" ref="C132:D132" si="12">C131+100</f>
+        <v>12801</v>
+      </c>
+      <c r="D132">
+        <f t="shared" si="12"/>
+        <v>12901</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B133">
+        <v>129</v>
+      </c>
+      <c r="C133">
+        <f t="shared" ref="C133:D133" si="13">C132+100</f>
+        <v>12901</v>
+      </c>
+      <c r="D133">
+        <f t="shared" si="13"/>
+        <v>13001</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B134">
+        <v>130</v>
+      </c>
+      <c r="C134">
+        <f t="shared" ref="C134:D134" si="14">C133+100</f>
+        <v>13001</v>
+      </c>
+      <c r="D134">
+        <f t="shared" si="14"/>
+        <v>13101</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B135">
+        <v>131</v>
+      </c>
+      <c r="C135">
+        <f t="shared" ref="C135:D135" si="15">C134+100</f>
+        <v>13101</v>
+      </c>
+      <c r="D135">
+        <f t="shared" si="15"/>
+        <v>13201</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B136">
+        <v>132</v>
+      </c>
+      <c r="C136">
+        <f t="shared" ref="C136:D136" si="16">C135+100</f>
+        <v>13201</v>
+      </c>
+      <c r="D136">
+        <f t="shared" si="16"/>
+        <v>13301</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B137">
+        <v>133</v>
+      </c>
+      <c r="C137">
+        <f t="shared" ref="C137:D137" si="17">C136+100</f>
+        <v>13301</v>
+      </c>
+      <c r="D137">
+        <f t="shared" si="17"/>
+        <v>13401</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B138">
+        <v>134</v>
+      </c>
+      <c r="C138">
+        <f t="shared" ref="C138:D138" si="18">C137+100</f>
+        <v>13401</v>
+      </c>
+      <c r="D138">
+        <f t="shared" si="18"/>
+        <v>13501</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B139">
+        <v>135</v>
+      </c>
+      <c r="C139">
+        <f t="shared" ref="C139:D139" si="19">C138+100</f>
+        <v>13501</v>
+      </c>
+      <c r="D139">
+        <f t="shared" si="19"/>
+        <v>13601</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B140">
+        <v>136</v>
+      </c>
+      <c r="C140">
+        <f t="shared" ref="C140:D140" si="20">C139+100</f>
+        <v>13601</v>
+      </c>
+      <c r="D140">
+        <f t="shared" si="20"/>
+        <v>13701</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B141">
+        <v>137</v>
+      </c>
+      <c r="C141">
+        <f t="shared" ref="C141:D141" si="21">C140+100</f>
+        <v>13701</v>
+      </c>
+      <c r="D141">
+        <f t="shared" si="21"/>
+        <v>13801</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B142">
+        <v>138</v>
+      </c>
+      <c r="C142">
+        <f t="shared" ref="C142:D142" si="22">C141+100</f>
+        <v>13801</v>
+      </c>
+      <c r="D142">
+        <f t="shared" si="22"/>
+        <v>13901</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B143">
+        <v>139</v>
+      </c>
+      <c r="C143">
+        <f t="shared" ref="C143:D143" si="23">C142+100</f>
+        <v>13901</v>
+      </c>
+      <c r="D143">
+        <f t="shared" si="23"/>
+        <v>14001</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B144">
+        <v>140</v>
+      </c>
+      <c r="C144">
+        <f t="shared" ref="C144:D144" si="24">C143+100</f>
+        <v>14001</v>
+      </c>
+      <c r="D144">
+        <f t="shared" si="24"/>
+        <v>14101</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B145">
+        <v>141</v>
+      </c>
+      <c r="C145">
+        <f t="shared" ref="C145:D145" si="25">C144+100</f>
+        <v>14101</v>
+      </c>
+      <c r="D145">
+        <f t="shared" si="25"/>
+        <v>14201</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B146">
+        <v>142</v>
+      </c>
+      <c r="C146">
+        <f t="shared" ref="C146:D146" si="26">C145+100</f>
+        <v>14201</v>
+      </c>
+      <c r="D146">
+        <f t="shared" si="26"/>
+        <v>14301</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B147">
+        <v>143</v>
+      </c>
+      <c r="C147">
+        <f t="shared" ref="C147:D147" si="27">C146+100</f>
+        <v>14301</v>
+      </c>
+      <c r="D147">
+        <f t="shared" si="27"/>
+        <v>14401</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B148">
+        <v>144</v>
+      </c>
+      <c r="C148">
+        <f t="shared" ref="C148:D148" si="28">C147+100</f>
+        <v>14401</v>
+      </c>
+      <c r="D148">
+        <f t="shared" si="28"/>
+        <v>14501</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B149">
+        <v>145</v>
+      </c>
+      <c r="C149">
+        <f t="shared" ref="C149:D149" si="29">C148+100</f>
+        <v>14501</v>
+      </c>
+      <c r="D149">
+        <f t="shared" si="29"/>
+        <v>14601</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B150">
+        <v>146</v>
+      </c>
+      <c r="C150">
+        <f t="shared" ref="C150:D150" si="30">C149+100</f>
+        <v>14601</v>
+      </c>
+      <c r="D150">
+        <f t="shared" si="30"/>
+        <v>14701</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B151">
+        <v>147</v>
+      </c>
+      <c r="C151">
+        <f t="shared" ref="C151:D151" si="31">C150+100</f>
+        <v>14701</v>
+      </c>
+      <c r="D151">
+        <f t="shared" si="31"/>
+        <v>14801</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B152">
+        <v>148</v>
+      </c>
+      <c r="C152">
+        <f t="shared" ref="C152:D152" si="32">C151+100</f>
+        <v>14801</v>
+      </c>
+      <c r="D152">
+        <f t="shared" si="32"/>
+        <v>14901</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B153">
+        <v>149</v>
+      </c>
+      <c r="C153">
+        <f t="shared" ref="C153:D153" si="33">C152+100</f>
+        <v>14901</v>
+      </c>
+      <c r="D153">
+        <f t="shared" si="33"/>
+        <v>15001</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B154">
+        <v>150</v>
+      </c>
+      <c r="C154">
+        <f t="shared" ref="C154:D154" si="34">C153+100</f>
+        <v>15001</v>
+      </c>
+      <c r="D154">
+        <f t="shared" si="34"/>
+        <v>15101</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B155">
+        <v>151</v>
+      </c>
+      <c r="C155">
+        <f t="shared" ref="C155:D155" si="35">C154+100</f>
+        <v>15101</v>
+      </c>
+      <c r="D155">
+        <f t="shared" si="35"/>
+        <v>15201</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B156">
+        <v>152</v>
+      </c>
+      <c r="C156">
+        <f t="shared" ref="C156:D156" si="36">C155+100</f>
+        <v>15201</v>
+      </c>
+      <c r="D156">
+        <f t="shared" si="36"/>
+        <v>15301</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B157">
+        <v>153</v>
+      </c>
+      <c r="C157">
+        <f t="shared" ref="C157:D157" si="37">C156+100</f>
+        <v>15301</v>
+      </c>
+      <c r="D157">
+        <f t="shared" si="37"/>
+        <v>15401</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B158">
+        <v>154</v>
+      </c>
+      <c r="C158">
+        <f t="shared" ref="C158:D158" si="38">C157+100</f>
+        <v>15401</v>
+      </c>
+      <c r="D158">
+        <f t="shared" si="38"/>
+        <v>15501</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B159">
+        <v>155</v>
+      </c>
+      <c r="C159">
+        <f t="shared" ref="C159:D159" si="39">C158+100</f>
+        <v>15501</v>
+      </c>
+      <c r="D159">
+        <f t="shared" si="39"/>
+        <v>15601</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B160">
+        <v>156</v>
+      </c>
+      <c r="C160">
+        <f t="shared" ref="C160:D160" si="40">C159+100</f>
+        <v>15601</v>
+      </c>
+      <c r="D160">
+        <f t="shared" si="40"/>
+        <v>15701</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B161">
+        <v>157</v>
+      </c>
+      <c r="C161">
+        <f t="shared" ref="C161:D161" si="41">C160+100</f>
+        <v>15701</v>
+      </c>
+      <c r="D161">
+        <f t="shared" si="41"/>
+        <v>15801</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B162">
+        <v>158</v>
+      </c>
+      <c r="C162">
+        <f t="shared" ref="C162:D162" si="42">C161+100</f>
+        <v>15801</v>
+      </c>
+      <c r="D162">
+        <f t="shared" si="42"/>
+        <v>15901</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B163">
+        <v>159</v>
+      </c>
+      <c r="C163">
+        <f t="shared" ref="C163:D163" si="43">C162+100</f>
+        <v>15901</v>
+      </c>
+      <c r="D163">
+        <f t="shared" si="43"/>
+        <v>16001</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B164">
+        <v>160</v>
+      </c>
+      <c r="C164">
+        <f t="shared" ref="C164:D164" si="44">C163+100</f>
+        <v>16001</v>
+      </c>
+      <c r="D164">
+        <f t="shared" si="44"/>
+        <v>16101</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B165">
+        <v>161</v>
+      </c>
+      <c r="C165">
+        <f t="shared" ref="C165:D165" si="45">C164+100</f>
+        <v>16101</v>
+      </c>
+      <c r="D165">
+        <f t="shared" si="45"/>
+        <v>16201</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B166">
+        <v>162</v>
+      </c>
+      <c r="C166">
+        <f t="shared" ref="C166:D166" si="46">C165+100</f>
+        <v>16201</v>
+      </c>
+      <c r="D166">
+        <f t="shared" si="46"/>
+        <v>16301</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B167">
+        <v>163</v>
+      </c>
+      <c r="C167">
+        <f t="shared" ref="C167:D167" si="47">C166+100</f>
+        <v>16301</v>
+      </c>
+      <c r="D167">
+        <f t="shared" si="47"/>
+        <v>16401</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B168">
+        <v>164</v>
+      </c>
+      <c r="C168">
+        <f t="shared" ref="C168:D168" si="48">C167+100</f>
+        <v>16401</v>
+      </c>
+      <c r="D168">
+        <f t="shared" si="48"/>
+        <v>16501</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B169">
+        <v>165</v>
+      </c>
+      <c r="C169">
+        <f t="shared" ref="C169:D169" si="49">C168+100</f>
+        <v>16501</v>
+      </c>
+      <c r="D169">
+        <f t="shared" si="49"/>
+        <v>16601</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B170">
+        <v>166</v>
+      </c>
+      <c r="C170">
+        <f t="shared" ref="C170:D170" si="50">C169+100</f>
+        <v>16601</v>
+      </c>
+      <c r="D170">
+        <f t="shared" si="50"/>
+        <v>16701</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B171">
+        <v>167</v>
+      </c>
+      <c r="C171">
+        <f t="shared" ref="C171:D171" si="51">C170+100</f>
+        <v>16701</v>
+      </c>
+      <c r="D171">
+        <f t="shared" si="51"/>
+        <v>16801</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B172">
+        <v>168</v>
+      </c>
+      <c r="C172">
+        <f t="shared" ref="C172:D172" si="52">C171+100</f>
+        <v>16801</v>
+      </c>
+      <c r="D172">
+        <f t="shared" si="52"/>
+        <v>16901</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B173">
+        <v>169</v>
+      </c>
+      <c r="C173">
+        <f t="shared" ref="C173:D173" si="53">C172+100</f>
+        <v>16901</v>
+      </c>
+      <c r="D173">
+        <f t="shared" si="53"/>
+        <v>17001</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B174">
+        <v>170</v>
+      </c>
+      <c r="C174">
+        <f t="shared" ref="C174:D174" si="54">C173+100</f>
+        <v>17001</v>
+      </c>
+      <c r="D174">
+        <f t="shared" si="54"/>
+        <v>17101</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B175">
+        <v>171</v>
+      </c>
+      <c r="C175">
+        <f t="shared" ref="C175:D175" si="55">C174+100</f>
+        <v>17101</v>
+      </c>
+      <c r="D175">
+        <f t="shared" si="55"/>
+        <v>17201</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B176">
+        <v>172</v>
+      </c>
+      <c r="C176">
+        <f t="shared" ref="C176:D176" si="56">C175+100</f>
+        <v>17201</v>
+      </c>
+      <c r="D176">
+        <f t="shared" si="56"/>
+        <v>17301</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B177">
+        <v>173</v>
+      </c>
+      <c r="C177">
+        <f t="shared" ref="C177:D177" si="57">C176+100</f>
+        <v>17301</v>
+      </c>
+      <c r="D177">
+        <f t="shared" si="57"/>
+        <v>17401</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B178">
+        <v>174</v>
+      </c>
+      <c r="C178">
+        <f t="shared" ref="C178:D178" si="58">C177+100</f>
+        <v>17401</v>
+      </c>
+      <c r="D178">
+        <f t="shared" si="58"/>
+        <v>17501</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B179">
+        <v>175</v>
+      </c>
+      <c r="C179">
+        <f t="shared" ref="C179:D179" si="59">C178+100</f>
+        <v>17501</v>
+      </c>
+      <c r="D179">
+        <f t="shared" si="59"/>
+        <v>17601</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B180">
+        <v>176</v>
+      </c>
+      <c r="C180">
+        <f t="shared" ref="C180:D180" si="60">C179+100</f>
+        <v>17601</v>
+      </c>
+      <c r="D180">
+        <f t="shared" si="60"/>
+        <v>17701</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B181">
+        <v>177</v>
+      </c>
+      <c r="C181">
+        <f t="shared" ref="C181:D181" si="61">C180+100</f>
+        <v>17701</v>
+      </c>
+      <c r="D181">
+        <f t="shared" si="61"/>
+        <v>17801</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B182">
+        <v>178</v>
+      </c>
+      <c r="C182">
+        <f t="shared" ref="C182:D182" si="62">C181+100</f>
+        <v>17801</v>
+      </c>
+      <c r="D182">
+        <f t="shared" si="62"/>
+        <v>17901</v>
+      </c>
+    </row>
+    <row r="183" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B183">
+        <v>179</v>
+      </c>
+      <c r="C183">
+        <f t="shared" ref="C183:D183" si="63">C182+100</f>
+        <v>17901</v>
+      </c>
+      <c r="D183">
+        <f t="shared" si="63"/>
+        <v>18001</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B184">
+        <v>180</v>
+      </c>
+      <c r="C184">
+        <f t="shared" ref="C184:D184" si="64">C183+100</f>
+        <v>18001</v>
+      </c>
+      <c r="D184">
+        <f t="shared" si="64"/>
+        <v>18101</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B185">
+        <v>181</v>
+      </c>
+      <c r="C185">
+        <f t="shared" ref="C185:D185" si="65">C184+100</f>
+        <v>18101</v>
+      </c>
+      <c r="D185">
+        <f t="shared" si="65"/>
+        <v>18201</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B186">
+        <v>182</v>
+      </c>
+      <c r="C186">
+        <f t="shared" ref="C186:D186" si="66">C185+100</f>
+        <v>18201</v>
+      </c>
+      <c r="D186">
+        <f t="shared" si="66"/>
+        <v>18301</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B187">
+        <v>183</v>
+      </c>
+      <c r="C187">
+        <f t="shared" ref="C187:D187" si="67">C186+100</f>
+        <v>18301</v>
+      </c>
+      <c r="D187">
+        <f t="shared" si="67"/>
+        <v>18401</v>
+      </c>
+    </row>
+    <row r="188" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B188">
+        <v>184</v>
+      </c>
+      <c r="C188">
+        <f t="shared" ref="C188:D188" si="68">C187+100</f>
+        <v>18401</v>
+      </c>
+      <c r="D188">
+        <f t="shared" si="68"/>
+        <v>18501</v>
+      </c>
+    </row>
+    <row r="189" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B189">
+        <v>185</v>
+      </c>
+      <c r="C189">
+        <f t="shared" ref="C189:D189" si="69">C188+100</f>
+        <v>18501</v>
+      </c>
+      <c r="D189">
+        <f t="shared" si="69"/>
+        <v>18601</v>
+      </c>
+    </row>
+    <row r="190" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B190">
+        <v>186</v>
+      </c>
+      <c r="C190">
+        <f t="shared" ref="C190:D190" si="70">C189+100</f>
+        <v>18601</v>
+      </c>
+      <c r="D190">
+        <f t="shared" si="70"/>
+        <v>18701</v>
+      </c>
+    </row>
+    <row r="191" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B191">
+        <v>187</v>
+      </c>
+      <c r="C191">
+        <f t="shared" ref="C191:D191" si="71">C190+100</f>
+        <v>18701</v>
+      </c>
+      <c r="D191">
+        <f t="shared" si="71"/>
+        <v>18801</v>
+      </c>
+    </row>
+    <row r="192" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B192">
+        <v>188</v>
+      </c>
+      <c r="C192">
+        <f t="shared" ref="C192:D192" si="72">C191+100</f>
+        <v>18801</v>
+      </c>
+      <c r="D192">
+        <f t="shared" si="72"/>
+        <v>18901</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B193">
+        <v>189</v>
+      </c>
+      <c r="C193">
+        <f t="shared" ref="C193:D193" si="73">C192+100</f>
+        <v>18901</v>
+      </c>
+      <c r="D193">
+        <f t="shared" si="73"/>
+        <v>19001</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B194">
+        <v>190</v>
+      </c>
+      <c r="C194">
+        <f t="shared" ref="C194:D194" si="74">C193+100</f>
+        <v>19001</v>
+      </c>
+      <c r="D194">
+        <f t="shared" si="74"/>
+        <v>19101</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B195">
+        <v>191</v>
+      </c>
+      <c r="C195">
+        <f t="shared" ref="C195:D195" si="75">C194+100</f>
+        <v>19101</v>
+      </c>
+      <c r="D195">
+        <f t="shared" si="75"/>
+        <v>19201</v>
+      </c>
+    </row>
+    <row r="196" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B196">
+        <v>192</v>
+      </c>
+      <c r="C196">
+        <f t="shared" ref="C196:D196" si="76">C195+100</f>
+        <v>19201</v>
+      </c>
+      <c r="D196">
+        <f t="shared" si="76"/>
+        <v>19301</v>
+      </c>
+    </row>
+    <row r="197" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B197">
+        <v>193</v>
+      </c>
+      <c r="C197">
+        <f t="shared" ref="C197:D197" si="77">C196+100</f>
+        <v>19301</v>
+      </c>
+      <c r="D197">
+        <f t="shared" si="77"/>
+        <v>19401</v>
+      </c>
+    </row>
+    <row r="198" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B198">
+        <v>194</v>
+      </c>
+      <c r="C198">
+        <f t="shared" ref="C198:D198" si="78">C197+100</f>
+        <v>19401</v>
+      </c>
+      <c r="D198">
+        <f t="shared" si="78"/>
+        <v>19501</v>
+      </c>
+    </row>
+    <row r="199" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B199">
+        <v>195</v>
+      </c>
+      <c r="C199">
+        <f t="shared" ref="C199:D199" si="79">C198+100</f>
+        <v>19501</v>
+      </c>
+      <c r="D199">
+        <f t="shared" si="79"/>
+        <v>19601</v>
+      </c>
+    </row>
+    <row r="200" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B200">
+        <v>196</v>
+      </c>
+      <c r="C200">
+        <f t="shared" ref="C200:D200" si="80">C199+100</f>
+        <v>19601</v>
+      </c>
+      <c r="D200">
+        <f t="shared" si="80"/>
+        <v>19701</v>
+      </c>
+    </row>
+    <row r="201" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B201">
+        <v>197</v>
+      </c>
+      <c r="C201">
+        <f t="shared" ref="C201:D201" si="81">C200+100</f>
+        <v>19701</v>
+      </c>
+      <c r="D201">
+        <f t="shared" si="81"/>
+        <v>19801</v>
+      </c>
+    </row>
+    <row r="202" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B202">
+        <v>198</v>
+      </c>
+      <c r="C202">
+        <f t="shared" ref="C202:D202" si="82">C201+100</f>
+        <v>19801</v>
+      </c>
+      <c r="D202">
+        <f t="shared" si="82"/>
+        <v>19901</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B203">
+        <v>199</v>
+      </c>
+      <c r="C203">
+        <f t="shared" ref="C203:D203" si="83">C202+100</f>
+        <v>19901</v>
+      </c>
+      <c r="D203">
+        <f t="shared" si="83"/>
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="204" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B204">
+        <v>200</v>
+      </c>
+      <c r="C204">
+        <f t="shared" ref="C204:D204" si="84">C203+100</f>
+        <v>20001</v>
+      </c>
+      <c r="D204">
+        <f t="shared" si="84"/>
+        <v>20101</v>
+      </c>
+    </row>
+    <row r="205" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B205">
+        <v>201</v>
+      </c>
+      <c r="C205">
+        <f t="shared" ref="C205:D205" si="85">C204+100</f>
+        <v>20101</v>
+      </c>
+      <c r="D205">
+        <f t="shared" si="85"/>
+        <v>20201</v>
+      </c>
+    </row>
+    <row r="206" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B206">
+        <v>202</v>
+      </c>
+      <c r="C206">
+        <f t="shared" ref="C206:D206" si="86">C205+100</f>
+        <v>20201</v>
+      </c>
+      <c r="D206">
+        <f t="shared" si="86"/>
+        <v>20301</v>
+      </c>
+    </row>
+    <row r="207" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B207">
+        <v>203</v>
+      </c>
+      <c r="C207">
+        <f t="shared" ref="C207:D207" si="87">C206+100</f>
+        <v>20301</v>
+      </c>
+      <c r="D207">
+        <f t="shared" si="87"/>
+        <v>20401</v>
+      </c>
+    </row>
+    <row r="208" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B208">
+        <v>204</v>
+      </c>
+      <c r="C208">
+        <f t="shared" ref="C208:D208" si="88">C207+100</f>
+        <v>20401</v>
+      </c>
+      <c r="D208">
+        <f t="shared" si="88"/>
+        <v>20501</v>
+      </c>
+    </row>
+    <row r="209" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B209">
+        <v>205</v>
+      </c>
+      <c r="C209">
+        <f t="shared" ref="C209:D209" si="89">C208+100</f>
+        <v>20501</v>
+      </c>
+      <c r="D209">
+        <f t="shared" si="89"/>
+        <v>20601</v>
+      </c>
+    </row>
+    <row r="210" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B210">
+        <v>206</v>
+      </c>
+      <c r="C210">
+        <f t="shared" ref="C210:D210" si="90">C209+100</f>
+        <v>20601</v>
+      </c>
+      <c r="D210">
+        <f t="shared" si="90"/>
+        <v>20701</v>
+      </c>
+    </row>
+    <row r="211" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B211">
+        <v>207</v>
+      </c>
+      <c r="C211">
+        <f t="shared" ref="C211:D211" si="91">C210+100</f>
+        <v>20701</v>
+      </c>
+      <c r="D211">
+        <f t="shared" si="91"/>
+        <v>20801</v>
+      </c>
+    </row>
+    <row r="212" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B212">
+        <v>208</v>
+      </c>
+      <c r="C212">
+        <f t="shared" ref="C212:D212" si="92">C211+100</f>
+        <v>20801</v>
+      </c>
+      <c r="D212">
+        <f t="shared" si="92"/>
+        <v>20901</v>
+      </c>
+    </row>
+    <row r="213" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B213">
+        <v>209</v>
+      </c>
+      <c r="C213">
+        <f t="shared" ref="C213:D213" si="93">C212+100</f>
+        <v>20901</v>
+      </c>
+      <c r="D213">
+        <f t="shared" si="93"/>
+        <v>21001</v>
+      </c>
+    </row>
+    <row r="214" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B214">
+        <v>210</v>
+      </c>
+      <c r="C214">
+        <f t="shared" ref="C214:D214" si="94">C213+100</f>
+        <v>21001</v>
+      </c>
+      <c r="D214">
+        <f t="shared" si="94"/>
+        <v>21101</v>
+      </c>
+    </row>
+    <row r="215" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B215">
+        <v>211</v>
+      </c>
+      <c r="C215">
+        <f t="shared" ref="C215:D215" si="95">C214+100</f>
+        <v>21101</v>
+      </c>
+      <c r="D215">
+        <f t="shared" si="95"/>
+        <v>21201</v>
+      </c>
+    </row>
+    <row r="216" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B216">
+        <v>212</v>
+      </c>
+      <c r="C216">
+        <f t="shared" ref="C216:D216" si="96">C215+100</f>
+        <v>21201</v>
+      </c>
+      <c r="D216">
+        <f t="shared" si="96"/>
+        <v>21301</v>
+      </c>
+    </row>
+    <row r="217" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B217">
+        <v>213</v>
+      </c>
+      <c r="C217">
+        <f t="shared" ref="C217:D217" si="97">C216+100</f>
+        <v>21301</v>
+      </c>
+      <c r="D217">
+        <f t="shared" si="97"/>
+        <v>21401</v>
+      </c>
+    </row>
+    <row r="218" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B218">
+        <v>214</v>
+      </c>
+      <c r="C218">
+        <f t="shared" ref="C218:D218" si="98">C217+100</f>
+        <v>21401</v>
+      </c>
+      <c r="D218">
+        <f t="shared" si="98"/>
+        <v>21501</v>
+      </c>
+    </row>
+    <row r="219" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B219">
+        <v>215</v>
+      </c>
+      <c r="C219">
+        <f t="shared" ref="C219:D219" si="99">C218+100</f>
+        <v>21501</v>
+      </c>
+      <c r="D219">
+        <f t="shared" si="99"/>
+        <v>21601</v>
+      </c>
+    </row>
+    <row r="220" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B220">
+        <v>216</v>
+      </c>
+      <c r="C220">
+        <f t="shared" ref="C220:D220" si="100">C219+100</f>
+        <v>21601</v>
+      </c>
+      <c r="D220">
+        <f t="shared" si="100"/>
+        <v>21701</v>
+      </c>
+    </row>
+    <row r="221" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B221">
+        <v>217</v>
+      </c>
+      <c r="C221">
+        <f t="shared" ref="C221:D221" si="101">C220+100</f>
+        <v>21701</v>
+      </c>
+      <c r="D221">
+        <f t="shared" si="101"/>
+        <v>21801</v>
+      </c>
+    </row>
+    <row r="222" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B222">
+        <v>218</v>
+      </c>
+      <c r="C222">
+        <f t="shared" ref="C222:D222" si="102">C221+100</f>
+        <v>21801</v>
+      </c>
+      <c r="D222">
+        <f t="shared" si="102"/>
+        <v>21901</v>
+      </c>
+    </row>
+    <row r="223" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B223">
+        <v>219</v>
+      </c>
+      <c r="C223">
+        <f t="shared" ref="C223:D223" si="103">C222+100</f>
+        <v>21901</v>
+      </c>
+      <c r="D223">
+        <f t="shared" si="103"/>
+        <v>22001</v>
+      </c>
+    </row>
+    <row r="224" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B224">
+        <v>220</v>
+      </c>
+      <c r="C224">
+        <f t="shared" ref="C224:D224" si="104">C223+100</f>
+        <v>22001</v>
+      </c>
+      <c r="D224">
+        <f t="shared" si="104"/>
+        <v>22101</v>
+      </c>
+    </row>
+    <row r="225" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B225">
+        <v>221</v>
+      </c>
+      <c r="C225">
+        <f t="shared" ref="C225:D225" si="105">C224+100</f>
+        <v>22101</v>
+      </c>
+      <c r="D225">
+        <f t="shared" si="105"/>
+        <v>22201</v>
+      </c>
+    </row>
+    <row r="226" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B226">
+        <v>222</v>
+      </c>
+      <c r="C226">
+        <f t="shared" ref="C226:D226" si="106">C225+100</f>
+        <v>22201</v>
+      </c>
+      <c r="D226">
+        <f t="shared" si="106"/>
+        <v>22301</v>
+      </c>
+    </row>
+    <row r="227" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B227">
+        <v>223</v>
+      </c>
+      <c r="C227">
+        <f t="shared" ref="C227:D227" si="107">C226+100</f>
+        <v>22301</v>
+      </c>
+      <c r="D227">
+        <f t="shared" si="107"/>
+        <v>22401</v>
+      </c>
+    </row>
+    <row r="228" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B228">
+        <v>224</v>
+      </c>
+      <c r="C228">
+        <f t="shared" ref="C228:D228" si="108">C227+100</f>
+        <v>22401</v>
+      </c>
+      <c r="D228">
+        <f t="shared" si="108"/>
+        <v>22501</v>
+      </c>
+    </row>
+    <row r="229" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B229">
+        <v>225</v>
+      </c>
+      <c r="C229">
+        <f t="shared" ref="C229:D229" si="109">C228+100</f>
+        <v>22501</v>
+      </c>
+      <c r="D229">
+        <f t="shared" si="109"/>
+        <v>22601</v>
+      </c>
+    </row>
+    <row r="230" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B230">
+        <v>226</v>
+      </c>
+      <c r="C230">
+        <f t="shared" ref="C230:D230" si="110">C229+100</f>
+        <v>22601</v>
+      </c>
+      <c r="D230">
+        <f t="shared" si="110"/>
+        <v>22701</v>
+      </c>
+    </row>
+    <row r="231" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B231">
+        <v>227</v>
+      </c>
+      <c r="C231">
+        <f t="shared" ref="C231:D231" si="111">C230+100</f>
+        <v>22701</v>
+      </c>
+      <c r="D231">
+        <f t="shared" si="111"/>
+        <v>22801</v>
+      </c>
+    </row>
+    <row r="232" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B232">
+        <v>228</v>
+      </c>
+      <c r="C232">
+        <f t="shared" ref="C232:D232" si="112">C231+100</f>
+        <v>22801</v>
+      </c>
+      <c r="D232">
+        <f t="shared" si="112"/>
+        <v>22901</v>
+      </c>
+    </row>
+    <row r="233" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B233">
+        <v>229</v>
+      </c>
+      <c r="C233">
+        <f t="shared" ref="C233:D233" si="113">C232+100</f>
+        <v>22901</v>
+      </c>
+      <c r="D233">
+        <f t="shared" si="113"/>
+        <v>23001</v>
+      </c>
+    </row>
+    <row r="234" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B234">
+        <v>230</v>
+      </c>
+      <c r="C234">
+        <f t="shared" ref="C234:D234" si="114">C233+100</f>
+        <v>23001</v>
+      </c>
+      <c r="D234">
+        <f t="shared" si="114"/>
+        <v>23101</v>
+      </c>
+    </row>
+    <row r="235" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B235">
+        <v>231</v>
+      </c>
+      <c r="C235">
+        <f t="shared" ref="C235:D235" si="115">C234+100</f>
+        <v>23101</v>
+      </c>
+      <c r="D235">
+        <f t="shared" si="115"/>
+        <v>23201</v>
+      </c>
+    </row>
+    <row r="236" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B236">
+        <v>232</v>
+      </c>
+      <c r="C236">
+        <f t="shared" ref="C236:D236" si="116">C235+100</f>
+        <v>23201</v>
+      </c>
+      <c r="D236">
+        <f t="shared" si="116"/>
+        <v>23301</v>
+      </c>
+    </row>
+    <row r="237" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B237">
+        <v>233</v>
+      </c>
+      <c r="C237">
+        <f t="shared" ref="C237:D237" si="117">C236+100</f>
+        <v>23301</v>
+      </c>
+      <c r="D237">
+        <f t="shared" si="117"/>
+        <v>23401</v>
+      </c>
+    </row>
+    <row r="238" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B238">
+        <v>234</v>
+      </c>
+      <c r="C238">
+        <f t="shared" ref="C238:D238" si="118">C237+100</f>
+        <v>23401</v>
+      </c>
+      <c r="D238">
+        <f t="shared" si="118"/>
+        <v>23501</v>
+      </c>
+    </row>
+    <row r="239" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B239">
+        <v>235</v>
+      </c>
+      <c r="C239">
+        <f t="shared" ref="C239:D239" si="119">C238+100</f>
+        <v>23501</v>
+      </c>
+      <c r="D239">
+        <f t="shared" si="119"/>
+        <v>23601</v>
+      </c>
+    </row>
+    <row r="240" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B240">
+        <v>236</v>
+      </c>
+      <c r="C240">
+        <f t="shared" ref="C240:D240" si="120">C239+100</f>
+        <v>23601</v>
+      </c>
+      <c r="D240">
+        <f t="shared" si="120"/>
+        <v>23701</v>
+      </c>
+    </row>
+    <row r="241" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B241">
+        <v>237</v>
+      </c>
+      <c r="C241">
+        <f t="shared" ref="C241:D241" si="121">C240+100</f>
+        <v>23701</v>
+      </c>
+      <c r="D241">
+        <f t="shared" si="121"/>
+        <v>23801</v>
+      </c>
+    </row>
+    <row r="242" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B242">
+        <v>238</v>
+      </c>
+      <c r="C242">
+        <f t="shared" ref="C242:D242" si="122">C241+100</f>
+        <v>23801</v>
+      </c>
+      <c r="D242">
+        <f t="shared" si="122"/>
+        <v>23901</v>
+      </c>
+    </row>
+    <row r="243" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B243">
+        <v>239</v>
+      </c>
+      <c r="C243">
+        <f t="shared" ref="C243:D243" si="123">C242+100</f>
+        <v>23901</v>
+      </c>
+      <c r="D243">
+        <f t="shared" si="123"/>
+        <v>24001</v>
+      </c>
+    </row>
+    <row r="244" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B244">
+        <v>240</v>
+      </c>
+      <c r="C244">
+        <f t="shared" ref="C244:D244" si="124">C243+100</f>
+        <v>24001</v>
+      </c>
+      <c r="D244">
+        <f t="shared" si="124"/>
+        <v>24101</v>
+      </c>
+    </row>
+    <row r="245" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B245">
+        <v>241</v>
+      </c>
+      <c r="C245">
+        <f t="shared" ref="C245:D245" si="125">C244+100</f>
+        <v>24101</v>
+      </c>
+      <c r="D245">
+        <f t="shared" si="125"/>
+        <v>24201</v>
+      </c>
+    </row>
+    <row r="246" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B246">
+        <v>242</v>
+      </c>
+      <c r="C246">
+        <f t="shared" ref="C246:D246" si="126">C245+100</f>
+        <v>24201</v>
+      </c>
+      <c r="D246">
+        <f t="shared" si="126"/>
+        <v>24301</v>
+      </c>
+    </row>
+    <row r="247" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B247">
+        <v>243</v>
+      </c>
+      <c r="C247">
+        <f t="shared" ref="C247:D247" si="127">C246+100</f>
+        <v>24301</v>
+      </c>
+      <c r="D247">
+        <f t="shared" si="127"/>
+        <v>24401</v>
+      </c>
+    </row>
+    <row r="248" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B248">
+        <v>244</v>
+      </c>
+      <c r="C248">
+        <f t="shared" ref="C248:D248" si="128">C247+100</f>
+        <v>24401</v>
+      </c>
+      <c r="D248">
+        <f t="shared" si="128"/>
+        <v>24501</v>
+      </c>
+    </row>
+    <row r="249" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B249">
+        <v>245</v>
+      </c>
+      <c r="C249">
+        <f t="shared" ref="C249:D249" si="129">C248+100</f>
+        <v>24501</v>
+      </c>
+      <c r="D249">
+        <f t="shared" si="129"/>
+        <v>24601</v>
+      </c>
+    </row>
+    <row r="250" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B250">
+        <v>246</v>
+      </c>
+      <c r="C250">
+        <f t="shared" ref="C250:D250" si="130">C249+100</f>
+        <v>24601</v>
+      </c>
+      <c r="D250">
+        <f t="shared" si="130"/>
+        <v>24701</v>
+      </c>
+    </row>
+    <row r="251" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B251">
+        <v>247</v>
+      </c>
+      <c r="C251">
+        <f t="shared" ref="C251:D251" si="131">C250+100</f>
+        <v>24701</v>
+      </c>
+      <c r="D251">
+        <f t="shared" si="131"/>
+        <v>24801</v>
+      </c>
+    </row>
+    <row r="252" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B252">
+        <v>248</v>
+      </c>
+      <c r="C252">
+        <f t="shared" ref="C252:D252" si="132">C251+100</f>
+        <v>24801</v>
+      </c>
+      <c r="D252">
+        <f t="shared" si="132"/>
+        <v>24901</v>
+      </c>
+    </row>
+    <row r="253" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B253">
+        <v>249</v>
+      </c>
+      <c r="C253">
+        <f t="shared" ref="C253:D253" si="133">C252+100</f>
+        <v>24901</v>
+      </c>
+      <c r="D253">
+        <f t="shared" si="133"/>
+        <v>25001</v>
+      </c>
+    </row>
+    <row r="254" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B254">
+        <v>250</v>
+      </c>
+      <c r="C254">
+        <f t="shared" ref="C254:D254" si="134">C253+100</f>
+        <v>25001</v>
+      </c>
+      <c r="D254">
+        <f t="shared" si="134"/>
+        <v>25101</v>
+      </c>
+    </row>
+    <row r="255" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B255">
+        <v>251</v>
+      </c>
+      <c r="C255">
+        <f t="shared" ref="C255:D255" si="135">C254+100</f>
+        <v>25101</v>
+      </c>
+      <c r="D255">
+        <f t="shared" si="135"/>
+        <v>25201</v>
+      </c>
+    </row>
+    <row r="256" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B256">
+        <v>252</v>
+      </c>
+      <c r="C256">
+        <f t="shared" ref="C256:D256" si="136">C255+100</f>
+        <v>25201</v>
+      </c>
+      <c r="D256">
+        <f t="shared" si="136"/>
+        <v>25301</v>
+      </c>
+    </row>
+    <row r="257" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B257">
+        <v>253</v>
+      </c>
+      <c r="C257">
+        <f t="shared" ref="C257:D257" si="137">C256+100</f>
+        <v>25301</v>
+      </c>
+      <c r="D257">
+        <f t="shared" si="137"/>
+        <v>25401</v>
+      </c>
+    </row>
+    <row r="258" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B258">
+        <v>254</v>
+      </c>
+      <c r="C258">
+        <f t="shared" ref="C258:D258" si="138">C257+100</f>
+        <v>25401</v>
+      </c>
+      <c r="D258">
+        <f t="shared" si="138"/>
+        <v>25501</v>
+      </c>
+    </row>
+    <row r="259" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B259">
+        <v>255</v>
+      </c>
+      <c r="C259">
+        <f t="shared" ref="C259:D259" si="139">C258+100</f>
+        <v>25501</v>
+      </c>
+      <c r="D259">
+        <f t="shared" si="139"/>
+        <v>25601</v>
+      </c>
+    </row>
+    <row r="260" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B260">
+        <v>256</v>
+      </c>
+      <c r="C260">
+        <f t="shared" ref="C260:D260" si="140">C259+100</f>
+        <v>25601</v>
+      </c>
+      <c r="D260">
+        <f t="shared" si="140"/>
+        <v>25701</v>
+      </c>
+    </row>
+    <row r="261" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B261">
+        <v>257</v>
+      </c>
+      <c r="C261">
+        <f t="shared" ref="C261:D261" si="141">C260+100</f>
+        <v>25701</v>
+      </c>
+      <c r="D261">
+        <f t="shared" si="141"/>
+        <v>25801</v>
+      </c>
+    </row>
+    <row r="262" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B262">
+        <v>258</v>
+      </c>
+      <c r="C262">
+        <f t="shared" ref="C262:D262" si="142">C261+100</f>
+        <v>25801</v>
+      </c>
+      <c r="D262">
+        <f t="shared" si="142"/>
+        <v>25901</v>
+      </c>
+    </row>
+    <row r="263" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B263">
+        <v>259</v>
+      </c>
+      <c r="C263">
+        <f t="shared" ref="C263:D263" si="143">C262+100</f>
+        <v>25901</v>
+      </c>
+      <c r="D263">
+        <f t="shared" si="143"/>
+        <v>26001</v>
+      </c>
+    </row>
+    <row r="264" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B264">
+        <v>260</v>
+      </c>
+      <c r="C264">
+        <f t="shared" ref="C264:D264" si="144">C263+100</f>
+        <v>26001</v>
+      </c>
+      <c r="D264">
+        <f t="shared" si="144"/>
+        <v>26101</v>
+      </c>
+    </row>
+    <row r="265" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B265">
+        <v>261</v>
+      </c>
+      <c r="C265">
+        <f t="shared" ref="C265:D265" si="145">C264+100</f>
+        <v>26101</v>
+      </c>
+      <c r="D265">
+        <f t="shared" si="145"/>
+        <v>26201</v>
+      </c>
+    </row>
+    <row r="266" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B266">
+        <v>262</v>
+      </c>
+      <c r="C266">
+        <f t="shared" ref="C266:D266" si="146">C265+100</f>
+        <v>26201</v>
+      </c>
+      <c r="D266">
+        <f t="shared" si="146"/>
+        <v>26301</v>
+      </c>
+    </row>
+    <row r="267" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B267">
+        <v>263</v>
+      </c>
+      <c r="C267">
+        <f t="shared" ref="C267:D267" si="147">C266+100</f>
+        <v>26301</v>
+      </c>
+      <c r="D267">
+        <f t="shared" si="147"/>
+        <v>26401</v>
+      </c>
+    </row>
+    <row r="268" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B268">
+        <v>264</v>
+      </c>
+      <c r="C268">
+        <f t="shared" ref="C268:D268" si="148">C267+100</f>
+        <v>26401</v>
+      </c>
+      <c r="D268">
+        <f t="shared" si="148"/>
+        <v>26501</v>
+      </c>
+    </row>
+    <row r="269" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B269">
+        <v>265</v>
+      </c>
+      <c r="C269">
+        <f t="shared" ref="C269:D269" si="149">C268+100</f>
+        <v>26501</v>
+      </c>
+      <c r="D269">
+        <f t="shared" si="149"/>
+        <v>26601</v>
+      </c>
+    </row>
+    <row r="270" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B270">
+        <v>266</v>
+      </c>
+      <c r="C270">
+        <f t="shared" ref="C270:D270" si="150">C269+100</f>
+        <v>26601</v>
+      </c>
+      <c r="D270">
+        <f t="shared" si="150"/>
+        <v>26701</v>
+      </c>
+    </row>
+    <row r="271" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B271">
+        <v>267</v>
+      </c>
+      <c r="C271">
+        <f t="shared" ref="C271:D271" si="151">C270+100</f>
+        <v>26701</v>
+      </c>
+      <c r="D271">
+        <f t="shared" si="151"/>
+        <v>26801</v>
+      </c>
+    </row>
+    <row r="272" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B272">
+        <v>268</v>
+      </c>
+      <c r="C272">
+        <f t="shared" ref="C272:D272" si="152">C271+100</f>
+        <v>26801</v>
+      </c>
+      <c r="D272">
+        <f t="shared" si="152"/>
+        <v>26901</v>
+      </c>
+    </row>
+    <row r="273" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B273">
+        <v>269</v>
+      </c>
+      <c r="C273">
+        <f t="shared" ref="C273:D273" si="153">C272+100</f>
+        <v>26901</v>
+      </c>
+      <c r="D273">
+        <f t="shared" si="153"/>
+        <v>27001</v>
+      </c>
+    </row>
+    <row r="274" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B274">
+        <v>270</v>
+      </c>
+      <c r="C274">
+        <f t="shared" ref="C274:D274" si="154">C273+100</f>
+        <v>27001</v>
+      </c>
+      <c r="D274">
+        <f t="shared" si="154"/>
+        <v>27101</v>
+      </c>
+    </row>
+    <row r="275" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B275">
+        <v>271</v>
+      </c>
+      <c r="C275">
+        <f t="shared" ref="C275:D275" si="155">C274+100</f>
+        <v>27101</v>
+      </c>
+      <c r="D275">
+        <f t="shared" si="155"/>
+        <v>27201</v>
+      </c>
+    </row>
+    <row r="276" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B276">
+        <v>272</v>
+      </c>
+      <c r="C276">
+        <f t="shared" ref="C276:D276" si="156">C275+100</f>
+        <v>27201</v>
+      </c>
+      <c r="D276">
+        <f t="shared" si="156"/>
+        <v>27301</v>
+      </c>
+    </row>
+    <row r="277" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B277">
+        <v>273</v>
+      </c>
+      <c r="C277">
+        <f t="shared" ref="C277:D277" si="157">C276+100</f>
+        <v>27301</v>
+      </c>
+      <c r="D277">
+        <f t="shared" si="157"/>
+        <v>27401</v>
+      </c>
+    </row>
+    <row r="278" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B278">
+        <v>274</v>
+      </c>
+      <c r="C278">
+        <f t="shared" ref="C278:D278" si="158">C277+100</f>
+        <v>27401</v>
+      </c>
+      <c r="D278">
+        <f t="shared" si="158"/>
+        <v>27501</v>
+      </c>
+    </row>
+    <row r="279" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B279">
+        <v>275</v>
+      </c>
+      <c r="C279">
+        <f t="shared" ref="C279:D279" si="159">C278+100</f>
+        <v>27501</v>
+      </c>
+      <c r="D279">
+        <f t="shared" si="159"/>
+        <v>27601</v>
+      </c>
+    </row>
+    <row r="280" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B280">
+        <v>276</v>
+      </c>
+      <c r="C280">
+        <f t="shared" ref="C280:D280" si="160">C279+100</f>
+        <v>27601</v>
+      </c>
+      <c r="D280">
+        <f t="shared" si="160"/>
+        <v>27701</v>
+      </c>
+    </row>
+    <row r="281" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B281">
+        <v>277</v>
+      </c>
+      <c r="C281">
+        <f t="shared" ref="C281:D281" si="161">C280+100</f>
+        <v>27701</v>
+      </c>
+      <c r="D281">
+        <f t="shared" si="161"/>
+        <v>27801</v>
+      </c>
+    </row>
+    <row r="282" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B282">
+        <v>278</v>
+      </c>
+      <c r="C282">
+        <f t="shared" ref="C282:D282" si="162">C281+100</f>
+        <v>27801</v>
+      </c>
+      <c r="D282">
+        <f t="shared" si="162"/>
+        <v>27901</v>
+      </c>
+    </row>
+    <row r="283" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B283">
+        <v>279</v>
+      </c>
+      <c r="C283">
+        <f t="shared" ref="C283:D283" si="163">C282+100</f>
+        <v>27901</v>
+      </c>
+      <c r="D283">
+        <f t="shared" si="163"/>
+        <v>28001</v>
+      </c>
+    </row>
+    <row r="284" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B284">
+        <v>280</v>
+      </c>
+      <c r="C284">
+        <f t="shared" ref="C284:D284" si="164">C283+100</f>
+        <v>28001</v>
+      </c>
+      <c r="D284">
+        <f t="shared" si="164"/>
+        <v>28101</v>
+      </c>
+    </row>
+    <row r="285" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B285">
+        <v>281</v>
+      </c>
+      <c r="C285">
+        <f t="shared" ref="C285:D285" si="165">C284+100</f>
+        <v>28101</v>
+      </c>
+      <c r="D285">
+        <f t="shared" si="165"/>
+        <v>28201</v>
+      </c>
+    </row>
+    <row r="286" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B286">
+        <v>282</v>
+      </c>
+      <c r="C286">
+        <f t="shared" ref="C286:D286" si="166">C285+100</f>
+        <v>28201</v>
+      </c>
+      <c r="D286">
+        <f t="shared" si="166"/>
+        <v>28301</v>
+      </c>
+    </row>
+    <row r="287" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B287">
+        <v>283</v>
+      </c>
+      <c r="C287">
+        <f t="shared" ref="C287:D287" si="167">C286+100</f>
+        <v>28301</v>
+      </c>
+      <c r="D287">
+        <f t="shared" si="167"/>
+        <v>28401</v>
+      </c>
+    </row>
+    <row r="288" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B288">
+        <v>284</v>
+      </c>
+      <c r="C288">
+        <f t="shared" ref="C288:D288" si="168">C287+100</f>
+        <v>28401</v>
+      </c>
+      <c r="D288">
+        <f t="shared" si="168"/>
+        <v>28501</v>
+      </c>
+    </row>
+    <row r="289" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B289">
+        <v>285</v>
+      </c>
+      <c r="C289">
+        <f t="shared" ref="C289:D289" si="169">C288+100</f>
+        <v>28501</v>
+      </c>
+      <c r="D289">
+        <f t="shared" si="169"/>
+        <v>28601</v>
+      </c>
+    </row>
+    <row r="290" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B290">
+        <v>286</v>
+      </c>
+      <c r="C290">
+        <f t="shared" ref="C290:D290" si="170">C289+100</f>
+        <v>28601</v>
+      </c>
+      <c r="D290">
+        <f t="shared" si="170"/>
+        <v>28701</v>
+      </c>
+    </row>
+    <row r="291" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B291">
+        <v>287</v>
+      </c>
+      <c r="C291">
+        <f t="shared" ref="C291:D291" si="171">C290+100</f>
+        <v>28701</v>
+      </c>
+      <c r="D291">
+        <f t="shared" si="171"/>
+        <v>28801</v>
+      </c>
+    </row>
+    <row r="292" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B292">
+        <v>288</v>
+      </c>
+      <c r="C292">
+        <f t="shared" ref="C292:D292" si="172">C291+100</f>
+        <v>28801</v>
+      </c>
+      <c r="D292">
+        <f t="shared" si="172"/>
+        <v>28901</v>
+      </c>
+    </row>
+    <row r="293" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B293">
+        <v>289</v>
+      </c>
+      <c r="C293">
+        <f t="shared" ref="C293:D293" si="173">C292+100</f>
+        <v>28901</v>
+      </c>
+      <c r="D293">
+        <f t="shared" si="173"/>
+        <v>29001</v>
+      </c>
+    </row>
+    <row r="294" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B294">
+        <v>290</v>
+      </c>
+      <c r="C294">
+        <f t="shared" ref="C294:D294" si="174">C293+100</f>
+        <v>29001</v>
+      </c>
+      <c r="D294">
+        <f t="shared" si="174"/>
+        <v>29101</v>
+      </c>
+    </row>
+    <row r="295" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B295">
+        <v>291</v>
+      </c>
+      <c r="C295">
+        <f t="shared" ref="C295:D295" si="175">C294+100</f>
+        <v>29101</v>
+      </c>
+      <c r="D295">
+        <f t="shared" si="175"/>
+        <v>29201</v>
+      </c>
+    </row>
+    <row r="296" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B296">
+        <v>292</v>
+      </c>
+      <c r="C296">
+        <f t="shared" ref="C296:D296" si="176">C295+100</f>
+        <v>29201</v>
+      </c>
+      <c r="D296">
+        <f t="shared" si="176"/>
+        <v>29301</v>
+      </c>
+    </row>
+    <row r="297" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B297">
+        <v>293</v>
+      </c>
+      <c r="C297">
+        <f t="shared" ref="C297:D297" si="177">C296+100</f>
+        <v>29301</v>
+      </c>
+      <c r="D297">
+        <f t="shared" si="177"/>
+        <v>29401</v>
+      </c>
+    </row>
+    <row r="298" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B298">
+        <v>294</v>
+      </c>
+      <c r="C298">
+        <f t="shared" ref="C298:D298" si="178">C297+100</f>
+        <v>29401</v>
+      </c>
+      <c r="D298">
+        <f t="shared" si="178"/>
+        <v>29501</v>
+      </c>
+    </row>
+    <row r="299" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B299">
+        <v>295</v>
+      </c>
+      <c r="C299">
+        <f t="shared" ref="C299:D299" si="179">C298+100</f>
+        <v>29501</v>
+      </c>
+      <c r="D299">
+        <f t="shared" si="179"/>
+        <v>29601</v>
+      </c>
+    </row>
+    <row r="300" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B300">
+        <v>296</v>
+      </c>
+      <c r="C300">
+        <f t="shared" ref="C300:D300" si="180">C299+100</f>
+        <v>29601</v>
+      </c>
+      <c r="D300">
+        <f t="shared" si="180"/>
+        <v>29701</v>
+      </c>
+    </row>
+    <row r="301" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B301">
+        <v>297</v>
+      </c>
+      <c r="C301">
+        <f t="shared" ref="C301:D301" si="181">C300+100</f>
+        <v>29701</v>
+      </c>
+      <c r="D301">
+        <f t="shared" si="181"/>
+        <v>29801</v>
+      </c>
+    </row>
+    <row r="302" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B302">
+        <v>298</v>
+      </c>
+      <c r="C302">
+        <f t="shared" ref="C302:D302" si="182">C301+100</f>
+        <v>29801</v>
+      </c>
+      <c r="D302">
+        <f t="shared" si="182"/>
+        <v>29901</v>
+      </c>
+    </row>
+    <row r="303" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B303">
+        <v>299</v>
+      </c>
+      <c r="C303">
+        <f t="shared" ref="C303:D303" si="183">C302+100</f>
+        <v>29901</v>
+      </c>
+      <c r="D303">
+        <f t="shared" si="183"/>
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="304" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B304">
+        <v>300</v>
+      </c>
+      <c r="C304">
+        <f t="shared" ref="C304:D304" si="184">C303+100</f>
+        <v>30001</v>
+      </c>
+      <c r="D304">
+        <f t="shared" si="184"/>
+        <v>30101</v>
+      </c>
+    </row>
+    <row r="305" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B305">
+        <v>301</v>
+      </c>
+      <c r="C305">
+        <f t="shared" ref="C305:D305" si="185">C304+100</f>
+        <v>30101</v>
+      </c>
+      <c r="D305">
+        <f t="shared" si="185"/>
+        <v>30201</v>
+      </c>
+    </row>
+    <row r="306" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B306">
+        <v>302</v>
+      </c>
+      <c r="C306">
+        <f t="shared" ref="C306:D306" si="186">C305+100</f>
+        <v>30201</v>
+      </c>
+      <c r="D306">
+        <f t="shared" si="186"/>
+        <v>30301</v>
+      </c>
+    </row>
+    <row r="307" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B307">
+        <v>303</v>
+      </c>
+      <c r="C307">
+        <f t="shared" ref="C307:D307" si="187">C306+100</f>
+        <v>30301</v>
+      </c>
+      <c r="D307">
+        <f t="shared" si="187"/>
+        <v>30401</v>
+      </c>
+    </row>
+    <row r="308" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B308">
+        <v>304</v>
+      </c>
+      <c r="C308">
+        <f t="shared" ref="C308:D308" si="188">C307+100</f>
+        <v>30401</v>
+      </c>
+      <c r="D308">
+        <f t="shared" si="188"/>
+        <v>30501</v>
+      </c>
+    </row>
+    <row r="309" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B309">
+        <v>305</v>
+      </c>
+      <c r="C309">
+        <f t="shared" ref="C309:D309" si="189">C308+100</f>
+        <v>30501</v>
+      </c>
+      <c r="D309">
+        <f t="shared" si="189"/>
+        <v>30601</v>
+      </c>
+    </row>
+    <row r="310" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B310">
+        <v>306</v>
+      </c>
+      <c r="C310">
+        <f t="shared" ref="C310:D310" si="190">C309+100</f>
+        <v>30601</v>
+      </c>
+      <c r="D310">
+        <f t="shared" si="190"/>
+        <v>30701</v>
+      </c>
+    </row>
+    <row r="311" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B311">
+        <v>307</v>
+      </c>
+      <c r="C311">
+        <f t="shared" ref="C311:D311" si="191">C310+100</f>
+        <v>30701</v>
+      </c>
+      <c r="D311">
+        <f t="shared" si="191"/>
+        <v>30801</v>
+      </c>
+    </row>
+    <row r="312" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B312">
+        <v>308</v>
+      </c>
+      <c r="C312">
+        <f t="shared" ref="C312:D312" si="192">C311+100</f>
+        <v>30801</v>
+      </c>
+      <c r="D312">
+        <f t="shared" si="192"/>
+        <v>30901</v>
+      </c>
+    </row>
+    <row r="313" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B313">
+        <v>309</v>
+      </c>
+      <c r="C313">
+        <f t="shared" ref="C313:D313" si="193">C312+100</f>
+        <v>30901</v>
+      </c>
+      <c r="D313">
+        <f t="shared" si="193"/>
+        <v>31001</v>
+      </c>
+    </row>
+    <row r="314" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B314">
+        <v>310</v>
+      </c>
+      <c r="C314">
+        <f t="shared" ref="C314:D314" si="194">C313+100</f>
+        <v>31001</v>
+      </c>
+      <c r="D314">
+        <f t="shared" si="194"/>
+        <v>31101</v>
+      </c>
+    </row>
+    <row r="315" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B315">
+        <v>311</v>
+      </c>
+      <c r="C315">
+        <f t="shared" ref="C315:D315" si="195">C314+100</f>
+        <v>31101</v>
+      </c>
+      <c r="D315">
+        <f t="shared" si="195"/>
+        <v>31201</v>
+      </c>
+    </row>
+    <row r="316" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B316">
+        <v>312</v>
+      </c>
+      <c r="C316">
+        <f t="shared" ref="C316:D316" si="196">C315+100</f>
+        <v>31201</v>
+      </c>
+      <c r="D316">
+        <f t="shared" si="196"/>
+        <v>31301</v>
+      </c>
+    </row>
+    <row r="317" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B317">
+        <v>313</v>
+      </c>
+      <c r="C317">
+        <f t="shared" ref="C317:D317" si="197">C316+100</f>
+        <v>31301</v>
+      </c>
+      <c r="D317">
+        <f t="shared" si="197"/>
+        <v>31401</v>
+      </c>
+    </row>
+    <row r="318" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B318">
+        <v>314</v>
+      </c>
+      <c r="C318">
+        <f t="shared" ref="C318:D318" si="198">C317+100</f>
+        <v>31401</v>
+      </c>
+      <c r="D318">
+        <f t="shared" si="198"/>
+        <v>31501</v>
+      </c>
+    </row>
+    <row r="319" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B319">
+        <v>315</v>
+      </c>
+      <c r="C319">
+        <f t="shared" ref="C319:D319" si="199">C318+100</f>
+        <v>31501</v>
+      </c>
+      <c r="D319">
+        <f t="shared" si="199"/>
+        <v>31601</v>
+      </c>
+    </row>
+    <row r="320" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B320">
+        <v>316</v>
+      </c>
+      <c r="C320">
+        <f t="shared" ref="C320:D320" si="200">C319+100</f>
+        <v>31601</v>
+      </c>
+      <c r="D320">
+        <f t="shared" si="200"/>
+        <v>31701</v>
+      </c>
+    </row>
+    <row r="321" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B321">
+        <v>317</v>
+      </c>
+      <c r="C321">
+        <f t="shared" ref="C321:D321" si="201">C320+100</f>
+        <v>31701</v>
+      </c>
+      <c r="D321">
+        <f t="shared" si="201"/>
+        <v>31801</v>
+      </c>
+    </row>
+    <row r="322" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B322">
+        <v>318</v>
+      </c>
+      <c r="C322">
+        <f t="shared" ref="C322:D322" si="202">C321+100</f>
+        <v>31801</v>
+      </c>
+      <c r="D322">
+        <f t="shared" si="202"/>
+        <v>31901</v>
+      </c>
+    </row>
+    <row r="323" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B323">
+        <v>319</v>
+      </c>
+      <c r="C323">
+        <f t="shared" ref="C323:D323" si="203">C322+100</f>
+        <v>31901</v>
+      </c>
+      <c r="D323">
+        <f t="shared" si="203"/>
+        <v>32001</v>
+      </c>
+    </row>
+    <row r="324" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B324">
+        <v>320</v>
+      </c>
+      <c r="C324">
+        <f t="shared" ref="C324:D324" si="204">C323+100</f>
+        <v>32001</v>
+      </c>
+      <c r="D324">
+        <f t="shared" si="204"/>
+        <v>32101</v>
+      </c>
+    </row>
+    <row r="325" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B325">
+        <v>321</v>
+      </c>
+      <c r="C325">
+        <f t="shared" ref="C325:D325" si="205">C324+100</f>
+        <v>32101</v>
+      </c>
+      <c r="D325">
+        <f t="shared" si="205"/>
+        <v>32201</v>
+      </c>
+    </row>
+    <row r="326" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B326">
+        <v>322</v>
+      </c>
+      <c r="C326">
+        <f t="shared" ref="C326:D326" si="206">C325+100</f>
+        <v>32201</v>
+      </c>
+      <c r="D326">
+        <f t="shared" si="206"/>
+        <v>32301</v>
+      </c>
+    </row>
+    <row r="327" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B327">
+        <v>323</v>
+      </c>
+      <c r="C327">
+        <f t="shared" ref="C327:D327" si="207">C326+100</f>
+        <v>32301</v>
+      </c>
+      <c r="D327">
+        <f t="shared" si="207"/>
+        <v>32401</v>
+      </c>
+    </row>
+    <row r="328" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B328">
+        <v>324</v>
+      </c>
+      <c r="C328">
+        <f t="shared" ref="C328:D328" si="208">C327+100</f>
+        <v>32401</v>
+      </c>
+      <c r="D328">
+        <f t="shared" si="208"/>
+        <v>32501</v>
+      </c>
+    </row>
+    <row r="329" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B329">
+        <v>325</v>
+      </c>
+      <c r="C329">
+        <f t="shared" ref="C329:D329" si="209">C328+100</f>
+        <v>32501</v>
+      </c>
+      <c r="D329">
+        <f t="shared" si="209"/>
+        <v>32601</v>
+      </c>
+    </row>
+    <row r="330" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B330">
+        <v>326</v>
+      </c>
+      <c r="C330">
+        <f t="shared" ref="C330:D330" si="210">C329+100</f>
+        <v>32601</v>
+      </c>
+      <c r="D330">
+        <f t="shared" si="210"/>
+        <v>32701</v>
+      </c>
+    </row>
+    <row r="331" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B331">
+        <v>327</v>
+      </c>
+      <c r="C331">
+        <f t="shared" ref="C331:D331" si="211">C330+100</f>
+        <v>32701</v>
+      </c>
+      <c r="D331">
+        <f t="shared" si="211"/>
+        <v>32801</v>
+      </c>
+    </row>
+    <row r="332" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B332">
+        <v>328</v>
+      </c>
+      <c r="C332">
+        <f t="shared" ref="C332:D332" si="212">C331+100</f>
+        <v>32801</v>
+      </c>
+      <c r="D332">
+        <f t="shared" si="212"/>
+        <v>32901</v>
+      </c>
+    </row>
+    <row r="333" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B333">
+        <v>329</v>
+      </c>
+      <c r="C333">
+        <f t="shared" ref="C333:D333" si="213">C332+100</f>
+        <v>32901</v>
+      </c>
+      <c r="D333">
+        <f t="shared" si="213"/>
+        <v>33001</v>
+      </c>
+    </row>
+    <row r="334" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B334">
+        <v>330</v>
+      </c>
+      <c r="C334">
+        <f t="shared" ref="C334:D334" si="214">C333+100</f>
+        <v>33001</v>
+      </c>
+      <c r="D334">
+        <f t="shared" si="214"/>
+        <v>33101</v>
+      </c>
+    </row>
+    <row r="335" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B335">
+        <v>331</v>
+      </c>
+      <c r="C335">
+        <f t="shared" ref="C335:D335" si="215">C334+100</f>
+        <v>33101</v>
+      </c>
+      <c r="D335">
+        <f t="shared" si="215"/>
+        <v>33201</v>
+      </c>
+    </row>
+    <row r="336" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B336">
+        <v>332</v>
+      </c>
+      <c r="C336">
+        <f t="shared" ref="C336:D336" si="216">C335+100</f>
+        <v>33201</v>
+      </c>
+      <c r="D336">
+        <f t="shared" si="216"/>
+        <v>33301</v>
+      </c>
+    </row>
+    <row r="337" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B337">
+        <v>333</v>
+      </c>
+      <c r="C337">
+        <f t="shared" ref="C337:D337" si="217">C336+100</f>
+        <v>33301</v>
+      </c>
+      <c r="D337">
+        <f t="shared" si="217"/>
+        <v>33401</v>
+      </c>
+    </row>
+    <row r="338" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B338">
+        <v>334</v>
+      </c>
+      <c r="C338">
+        <f t="shared" ref="C338:D338" si="218">C337+100</f>
+        <v>33401</v>
+      </c>
+      <c r="D338">
+        <f t="shared" si="218"/>
+        <v>33501</v>
+      </c>
+    </row>
+    <row r="339" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B339">
+        <v>335</v>
+      </c>
+      <c r="C339">
+        <f t="shared" ref="C339:D339" si="219">C338+100</f>
+        <v>33501</v>
+      </c>
+      <c r="D339">
+        <f t="shared" si="219"/>
+        <v>33601</v>
+      </c>
+    </row>
+    <row r="340" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B340">
+        <v>336</v>
+      </c>
+      <c r="C340">
+        <f t="shared" ref="C340:D340" si="220">C339+100</f>
+        <v>33601</v>
+      </c>
+      <c r="D340">
+        <f t="shared" si="220"/>
+        <v>33701</v>
+      </c>
+    </row>
+    <row r="341" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B341">
+        <v>337</v>
+      </c>
+      <c r="C341">
+        <f t="shared" ref="C341:D341" si="221">C340+100</f>
+        <v>33701</v>
+      </c>
+      <c r="D341">
+        <f t="shared" si="221"/>
+        <v>33801</v>
+      </c>
+    </row>
+    <row r="342" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B342">
+        <v>338</v>
+      </c>
+      <c r="C342">
+        <f t="shared" ref="C342:D342" si="222">C341+100</f>
+        <v>33801</v>
+      </c>
+      <c r="D342">
+        <f t="shared" si="222"/>
+        <v>33901</v>
+      </c>
+    </row>
+    <row r="343" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B343">
+        <v>339</v>
+      </c>
+      <c r="C343">
+        <f t="shared" ref="C343:D343" si="223">C342+100</f>
+        <v>33901</v>
+      </c>
+      <c r="D343">
+        <f t="shared" si="223"/>
+        <v>34001</v>
+      </c>
+    </row>
+    <row r="344" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B344">
+        <v>340</v>
+      </c>
+      <c r="C344">
+        <f t="shared" ref="C344:D344" si="224">C343+100</f>
+        <v>34001</v>
+      </c>
+      <c r="D344">
+        <f t="shared" si="224"/>
+        <v>34101</v>
+      </c>
+    </row>
+    <row r="345" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B345">
+        <v>341</v>
+      </c>
+      <c r="C345">
+        <f t="shared" ref="C345:D345" si="225">C344+100</f>
+        <v>34101</v>
+      </c>
+      <c r="D345">
+        <f t="shared" si="225"/>
+        <v>34201</v>
+      </c>
+    </row>
+    <row r="346" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B346">
+        <v>342</v>
+      </c>
+      <c r="C346">
+        <f t="shared" ref="C346:D346" si="226">C345+100</f>
+        <v>34201</v>
+      </c>
+      <c r="D346">
+        <f t="shared" si="226"/>
+        <v>34301</v>
+      </c>
+    </row>
+    <row r="347" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B347">
+        <v>343</v>
+      </c>
+      <c r="C347">
+        <f t="shared" ref="C347:D347" si="227">C346+100</f>
+        <v>34301</v>
+      </c>
+      <c r="D347">
+        <f t="shared" si="227"/>
+        <v>34401</v>
+      </c>
+    </row>
+    <row r="348" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B348">
+        <v>344</v>
+      </c>
+      <c r="C348">
+        <f t="shared" ref="C348:D348" si="228">C347+100</f>
+        <v>34401</v>
+      </c>
+      <c r="D348">
+        <f t="shared" si="228"/>
+        <v>34501</v>
+      </c>
+    </row>
+    <row r="349" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B349">
+        <v>345</v>
+      </c>
+      <c r="C349">
+        <f t="shared" ref="C349:D349" si="229">C348+100</f>
+        <v>34501</v>
+      </c>
+      <c r="D349">
+        <f t="shared" si="229"/>
+        <v>34601</v>
+      </c>
+    </row>
+    <row r="350" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B350">
+        <v>346</v>
+      </c>
+      <c r="C350">
+        <f t="shared" ref="C350:D350" si="230">C349+100</f>
+        <v>34601</v>
+      </c>
+      <c r="D350">
+        <f t="shared" si="230"/>
+        <v>34701</v>
+      </c>
+    </row>
+    <row r="351" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B351">
+        <v>347</v>
+      </c>
+      <c r="C351">
+        <f t="shared" ref="C351:D351" si="231">C350+100</f>
+        <v>34701</v>
+      </c>
+      <c r="D351">
+        <f t="shared" si="231"/>
+        <v>34801</v>
+      </c>
+    </row>
+    <row r="352" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B352">
+        <v>348</v>
+      </c>
+      <c r="C352">
+        <f t="shared" ref="C352:D352" si="232">C351+100</f>
+        <v>34801</v>
+      </c>
+      <c r="D352">
+        <f t="shared" si="232"/>
+        <v>34901</v>
+      </c>
+    </row>
+    <row r="353" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B353">
+        <v>349</v>
+      </c>
+      <c r="C353">
+        <f t="shared" ref="C353:D353" si="233">C352+100</f>
+        <v>34901</v>
+      </c>
+      <c r="D353">
+        <f t="shared" si="233"/>
+        <v>35001</v>
+      </c>
+    </row>
+    <row r="354" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B354">
+        <v>350</v>
+      </c>
+      <c r="C354">
+        <f t="shared" ref="C354:D354" si="234">C353+100</f>
+        <v>35001</v>
+      </c>
+      <c r="D354">
+        <f t="shared" si="234"/>
+        <v>35101</v>
+      </c>
+    </row>
+    <row r="355" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B355">
+        <v>351</v>
+      </c>
+      <c r="C355">
+        <f t="shared" ref="C355:D355" si="235">C354+100</f>
+        <v>35101</v>
+      </c>
+      <c r="D355">
+        <f t="shared" si="235"/>
+        <v>35201</v>
+      </c>
+    </row>
+    <row r="356" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B356">
+        <v>352</v>
+      </c>
+      <c r="C356">
+        <f t="shared" ref="C356:D356" si="236">C355+100</f>
+        <v>35201</v>
+      </c>
+      <c r="D356">
+        <f t="shared" si="236"/>
+        <v>35301</v>
+      </c>
+    </row>
+    <row r="357" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B357">
+        <v>353</v>
+      </c>
+      <c r="C357">
+        <f t="shared" ref="C357:D357" si="237">C356+100</f>
+        <v>35301</v>
+      </c>
+      <c r="D357">
+        <f t="shared" si="237"/>
+        <v>35401</v>
+      </c>
+    </row>
+    <row r="358" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B358">
+        <v>354</v>
+      </c>
+      <c r="C358">
+        <f t="shared" ref="C358:D358" si="238">C357+100</f>
+        <v>35401</v>
+      </c>
+      <c r="D358">
+        <f t="shared" si="238"/>
+        <v>35501</v>
+      </c>
+    </row>
+    <row r="359" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B359">
+        <v>355</v>
+      </c>
+      <c r="C359">
+        <f t="shared" ref="C359:D359" si="239">C358+100</f>
+        <v>35501</v>
+      </c>
+      <c r="D359">
+        <f t="shared" si="239"/>
+        <v>35601</v>
+      </c>
+    </row>
+    <row r="360" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B360">
+        <v>356</v>
+      </c>
+      <c r="C360">
+        <f t="shared" ref="C360:D360" si="240">C359+100</f>
+        <v>35601</v>
+      </c>
+      <c r="D360">
+        <f t="shared" si="240"/>
+        <v>35701</v>
+      </c>
+    </row>
+    <row r="361" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B361">
+        <v>357</v>
+      </c>
+      <c r="C361">
+        <f t="shared" ref="C361:D361" si="241">C360+100</f>
+        <v>35701</v>
+      </c>
+      <c r="D361">
+        <f t="shared" si="241"/>
+        <v>35801</v>
+      </c>
+    </row>
+    <row r="362" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B362">
+        <v>358</v>
+      </c>
+      <c r="C362">
+        <f t="shared" ref="C362:D362" si="242">C361+100</f>
+        <v>35801</v>
+      </c>
+      <c r="D362">
+        <f t="shared" si="242"/>
+        <v>35901</v>
+      </c>
+    </row>
+    <row r="363" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B363">
+        <v>359</v>
+      </c>
+      <c r="C363">
+        <f t="shared" ref="C363:D363" si="243">C362+100</f>
+        <v>35901</v>
+      </c>
+      <c r="D363">
+        <f t="shared" si="243"/>
+        <v>36001</v>
+      </c>
+    </row>
+    <row r="364" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B364">
+        <v>360</v>
+      </c>
+      <c r="C364">
+        <f t="shared" ref="C364:D364" si="244">C363+100</f>
+        <v>36001</v>
+      </c>
+      <c r="D364">
+        <f t="shared" si="244"/>
+        <v>36101</v>
+      </c>
+    </row>
+    <row r="365" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B365">
+        <v>361</v>
+      </c>
+      <c r="C365">
+        <f t="shared" ref="C365:D365" si="245">C364+100</f>
+        <v>36101</v>
+      </c>
+      <c r="D365">
+        <f t="shared" si="245"/>
+        <v>36201</v>
+      </c>
+    </row>
+    <row r="366" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B366">
+        <v>362</v>
+      </c>
+      <c r="C366">
+        <f t="shared" ref="C366:D366" si="246">C365+100</f>
+        <v>36201</v>
+      </c>
+      <c r="D366">
+        <f t="shared" si="246"/>
+        <v>36301</v>
       </c>
     </row>
   </sheetData>

--- a/크롤링참조.xlsx
+++ b/크롤링참조.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vscode\kimsProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64E61E5-B9AB-4272-B7B1-5DAC129255E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4948B435-876C-4C73-A9E1-F85FC3CC3BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2760" yWindow="2676" windowWidth="13284" windowHeight="8052" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -449,7 +449,7 @@
   <dimension ref="B2:G366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:XFD79"/>
+      <selection activeCell="A99" sqref="A80:XFD99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1467,7 +1467,7 @@
         <v>7601</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B80">
         <v>76</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>7701</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B81">
         <v>77</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>7801</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B82">
         <v>78</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>7901</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B83">
         <v>79</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>8001</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B84">
         <v>80</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>8101</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B85">
         <v>81</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>8201</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B86">
         <v>82</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>8301</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B87">
         <v>83</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>8401</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B88">
         <v>84</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>8501</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B89">
         <v>85</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>8601</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B90">
         <v>86</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>8701</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B91">
         <v>87</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>8801</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B92">
         <v>88</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>8901</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B93">
         <v>89</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>9001</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B94">
         <v>90</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>9101</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B95">
         <v>91</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B96">
         <v>92</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>9301</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B97">
         <v>93</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>9401</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B98">
         <v>94</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>9501</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B99">
         <v>95</v>
       </c>

--- a/크롤링참조.xlsx
+++ b/크롤링참조.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vscode\kimsProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4948B435-876C-4C73-A9E1-F85FC3CC3BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19547CC7-A8D0-4ACF-A5FE-04F82BD399DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2760" yWindow="2676" windowWidth="13284" windowHeight="8052" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -449,7 +449,7 @@
   <dimension ref="B2:G366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A99" sqref="A80:XFD99"/>
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1727,7 +1727,7 @@
         <v>9601</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B100">
         <v>96</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>9701</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B101">
         <v>97</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>9801</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B102">
         <v>98</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>9901</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B103">
         <v>99</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B104">
         <v>100</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>10101</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B105">
         <v>101</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>10201</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B106">
         <v>102</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>10301</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B107">
         <v>103</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>10401</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B108">
         <v>104</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>10501</v>
       </c>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="109" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B109">
         <v>105</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>10601</v>
       </c>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="110" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B110">
         <v>106</v>
       </c>

--- a/크롤링참조.xlsx
+++ b/크롤링참조.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vscode\kimsProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19547CC7-A8D0-4ACF-A5FE-04F82BD399DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6ECFC8-6E05-46A1-8840-8C12E703D9B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2760" yWindow="2676" windowWidth="13284" windowHeight="8052" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -448,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G366"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="F125" sqref="F125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1870,7 +1870,7 @@
         <v>10701</v>
       </c>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="111" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B111">
         <v>107</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>10801</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="112" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B112">
         <v>108</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>10901</v>
       </c>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="113" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B113">
         <v>109</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>11001</v>
       </c>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="114" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B114">
         <v>110</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>11101</v>
       </c>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="115" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B115">
         <v>111</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>11201</v>
       </c>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="116" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B116">
         <v>112</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>11301</v>
       </c>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="117" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B117">
         <v>113</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>11401</v>
       </c>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="118" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B118">
         <v>114</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>11501</v>
       </c>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="119" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B119">
         <v>115</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>11601</v>
       </c>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="120" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B120">
         <v>116</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>11701</v>
       </c>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="121" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B121">
         <v>117</v>
       </c>

--- a/크롤링참조.xlsx
+++ b/크롤링참조.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vscode\kimsProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6ECFC8-6E05-46A1-8840-8C12E703D9B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9C77F7-91C9-4E09-AC68-FD0C530DD56B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2760" yWindow="2676" windowWidth="13284" windowHeight="8052" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -448,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="F125" sqref="F125"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H144" sqref="H144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2013,7 +2013,7 @@
         <v>11801</v>
       </c>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="122" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B122">
         <v>118</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>11901</v>
       </c>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="123" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B123">
         <v>119</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>12001</v>
       </c>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="124" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B124">
         <v>120</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>12101</v>
       </c>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="125" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B125">
         <v>121</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>12201</v>
       </c>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="126" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B126">
         <v>122</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>12301</v>
       </c>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="127" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B127">
         <v>123</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>12401</v>
       </c>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="128" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B128">
         <v>124</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>12501</v>
       </c>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="129" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B129">
         <v>125</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>12601</v>
       </c>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="130" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B130">
         <v>126</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>12701</v>
       </c>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="131" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B131">
         <v>127</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>12801</v>
       </c>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="132" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B132">
         <v>128</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>12901</v>
       </c>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="133" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B133">
         <v>129</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>13001</v>
       </c>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="134" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B134">
         <v>130</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>13101</v>
       </c>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="135" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B135">
         <v>131</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>13201</v>
       </c>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="136" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B136">
         <v>132</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>13301</v>
       </c>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="137" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B137">
         <v>133</v>
       </c>

--- a/크롤링참조.xlsx
+++ b/크롤링참조.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vscode\kimsProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9C77F7-91C9-4E09-AC68-FD0C530DD56B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC486F8-2152-4CF2-901D-F79598477A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="2676" windowWidth="13284" windowHeight="8052" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -449,7 +449,7 @@
   <dimension ref="B2:G366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H144" sqref="H144"/>
+      <selection activeCell="G148" sqref="G148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2221,7 +2221,7 @@
         <v>13401</v>
       </c>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="138" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B138">
         <v>134</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>13501</v>
       </c>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="139" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B139">
         <v>135</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>13601</v>
       </c>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="140" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B140">
         <v>136</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>13701</v>
       </c>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="141" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B141">
         <v>137</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>13801</v>
       </c>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="142" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B142">
         <v>138</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>13901</v>
       </c>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="143" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B143">
         <v>139</v>
       </c>

--- a/크롤링참조.xlsx
+++ b/크롤링참조.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vscode\kimsProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC486F8-2152-4CF2-901D-F79598477A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B0D5F0-821D-4EC7-9E8A-6A137D6609FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -449,7 +449,7 @@
   <dimension ref="B2:G366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G148" sqref="G148"/>
+      <selection activeCell="J156" sqref="J156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2299,7 +2299,7 @@
         <v>14001</v>
       </c>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="144" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B144">
         <v>140</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>14101</v>
       </c>
     </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="145" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B145">
         <v>141</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>14201</v>
       </c>
     </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="146" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B146">
         <v>142</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>14301</v>
       </c>
     </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="147" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B147">
         <v>143</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>14401</v>
       </c>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="148" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B148">
         <v>144</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>14501</v>
       </c>
     </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="149" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B149">
         <v>145</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>14601</v>
       </c>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="150" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B150">
         <v>146</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>14701</v>
       </c>
     </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="151" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B151">
         <v>147</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>14801</v>
       </c>
     </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="152" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B152">
         <v>148</v>
       </c>

--- a/크롤링참조.xlsx
+++ b/크롤링참조.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vscode\kimsProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B0D5F0-821D-4EC7-9E8A-6A137D6609FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D65E902-B00D-45BA-9ACB-563D35221F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -449,7 +449,7 @@
   <dimension ref="B2:G366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J156" sqref="J156"/>
+      <selection activeCell="A153" sqref="A153:XFD164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2416,7 +2416,7 @@
         <v>14901</v>
       </c>
     </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="153" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B153">
         <v>149</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>15001</v>
       </c>
     </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="154" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B154">
         <v>150</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>15101</v>
       </c>
     </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="155" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B155">
         <v>151</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>15201</v>
       </c>
     </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="156" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B156">
         <v>152</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>15301</v>
       </c>
     </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="157" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B157">
         <v>153</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>15401</v>
       </c>
     </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="158" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B158">
         <v>154</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>15501</v>
       </c>
     </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="159" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B159">
         <v>155</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>15601</v>
       </c>
     </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="160" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B160">
         <v>156</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>15701</v>
       </c>
     </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="161" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B161">
         <v>157</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>15801</v>
       </c>
     </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="162" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B162">
         <v>158</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>15901</v>
       </c>
     </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="163" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B163">
         <v>159</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>16001</v>
       </c>
     </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="164" spans="2:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B164">
         <v>160</v>
       </c>
